--- a/Giuseppe/project 10/lab10.xlsx
+++ b/Giuseppe/project 10/lab10.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giuseppe\Documents\.magistrale\secondo anno\Process\Final\project 10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D21BF7-7392-4439-83BF-7D7851D190B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17C12B7-B7A4-4B46-8B6C-BD1DB1D74758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{B2857D79-01BD-4509-B5E7-523680E9FE6A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{B2857D79-01BD-4509-B5E7-523680E9FE6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Ions" sheetId="1" r:id="rId1"/>
-    <sheet name="Acids" sheetId="2" r:id="rId2"/>
-    <sheet name="Foglio3" sheetId="3" r:id="rId3"/>
-    <sheet name="Foglio4" sheetId="4" r:id="rId4"/>
+    <sheet name="Acido formico" sheetId="4" r:id="rId2"/>
+    <sheet name="Prova acido lattico" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="52">
   <si>
     <t>NH2-</t>
   </si>
@@ -89,24 +88,9 @@
     <t>CPCM</t>
   </si>
   <si>
-    <t>HCOO-</t>
-  </si>
-  <si>
     <t>GAS PHASE</t>
   </si>
   <si>
-    <t>SOLUTION PHASE</t>
-  </si>
-  <si>
-    <t>H+</t>
-  </si>
-  <si>
-    <t>SCF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G diss </t>
-  </si>
-  <si>
     <t>HA</t>
   </si>
   <si>
@@ -116,36 +100,18 @@
     <t>H3O</t>
   </si>
   <si>
-    <t>deltaG</t>
-  </si>
-  <si>
     <t>A-</t>
   </si>
   <si>
-    <t>final [A.U.]</t>
-  </si>
-  <si>
-    <t>final [kJ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">final </t>
-  </si>
-  <si>
     <t>pka</t>
   </si>
   <si>
-    <t>final [kcal]</t>
-  </si>
-  <si>
     <t>R [J/molK]</t>
   </si>
   <si>
     <t>R [kcal/molK]</t>
   </si>
   <si>
-    <t>Paper</t>
-  </si>
-  <si>
     <t>Acido</t>
   </si>
   <si>
@@ -209,16 +175,25 @@
     <t>Correction factor</t>
   </si>
   <si>
-    <t>DeltaG HA</t>
-  </si>
-  <si>
-    <t>DeltaG A-</t>
-  </si>
-  <si>
-    <t>DeltaG H2O</t>
-  </si>
-  <si>
-    <t>DeltaG H3O</t>
+    <t>Δggas</t>
+  </si>
+  <si>
+    <t>ΔG H3O</t>
+  </si>
+  <si>
+    <t>ΔG H2O</t>
+  </si>
+  <si>
+    <t>ΔG HA</t>
+  </si>
+  <si>
+    <t>ΔG A-</t>
+  </si>
+  <si>
+    <t>ΔG soln</t>
+  </si>
+  <si>
+    <t>experimental val</t>
   </si>
 </sst>
 </file>
@@ -249,13 +224,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF569CD6"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,8 +267,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -404,35 +386,7 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -476,18 +430,144 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -495,7 +575,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -506,9 +586,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -524,80 +601,104 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -935,10 +1036,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE33C5F-08E8-4A6E-9E95-BC7D300801B4}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,13 +1052,13 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -965,7 +1066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -973,163 +1074,163 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J5" t="s">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="5"/>
       <c r="C7"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="5"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30" t="s">
+      <c r="B9" s="4"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="25" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="22">
         <f>-55.9339985319*2625.5</f>
         <v>-146854.71314550345</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="23">
         <f>-56.0530839446*2625.5</f>
         <v>-147167.37189654729</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="24">
         <f>D15-C15</f>
         <v>-312.65875104384031</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="16">
+      <c r="C16" s="22"/>
+      <c r="D16" s="11">
         <f>-56.0484608188*2625.5</f>
         <v>-147155.23387975941</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="12">
         <f>(D16-C15)</f>
         <v>-300.52073425595881</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="14">
         <f>-150.995463364*2625.5</f>
         <v>-396438.58906218194</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="15">
         <f xml:space="preserve"> -151.118202186*2625.5</f>
         <v>-396760.83983934298</v>
       </c>
-      <c r="E17" s="21">
-        <f t="shared" ref="E17:E18" si="0">D17-C17</f>
+      <c r="E17" s="16">
+        <f t="shared" ref="E17" si="0">D17-C17</f>
         <v>-322.25077716103988</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20">
+      <c r="C18" s="14"/>
+      <c r="D18" s="15">
         <f>-151.118283609*2625.5</f>
         <v>-396761.0536154295</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="16">
         <f>D18-C17</f>
         <v>-322.46455324755516</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="18">
         <f>-115.146813781*2625.5</f>
         <v>-302317.95958201552</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="19">
         <f>-115.260659341*2625.5</f>
         <v>-302616.8610997955</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="20">
         <f>D19-C19</f>
         <v>-298.9015177799738</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="24">
+      <c r="C20" s="18"/>
+      <c r="D20" s="19">
         <f>-115.260736975*2625.5</f>
         <v>-302617.06492786249</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E20" s="20">
         <f>D20-C19</f>
         <v>-299.1053458469687</v>
       </c>
@@ -1140,562 +1241,190 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{099D3FC7-5A80-4806-B6AB-01624B7F8568}">
-  <dimension ref="A1:S36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0EE6EA1-F5EE-4E3E-95E6-ED534FF2BCE8}">
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="1"/>
-    <col min="13" max="13" width="15.5703125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="36.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="9.140625" style="1"/>
+    <col min="15" max="15" width="89" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="P1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="29">
+        <v>-189.73853500000001</v>
+      </c>
+      <c r="C2" s="30">
+        <v>-189.19773900000001</v>
+      </c>
+      <c r="D2" s="30">
+        <v>-189.74653699999999</v>
+      </c>
+      <c r="E2" s="30">
+        <v>-189.30211800000001</v>
+      </c>
+      <c r="F2" s="30">
+        <v>-76.409934000000007</v>
+      </c>
+      <c r="G2" s="31">
+        <v>-76.670539000000005</v>
+      </c>
+      <c r="J2" s="32">
+        <v>1.9870000000000001E-3</v>
+      </c>
+      <c r="K2" s="5">
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="40"/>
+      <c r="B4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2">
-        <v>8.3144626180000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="1">
-        <v>-189.808536452</v>
-      </c>
-      <c r="C3" s="1">
-        <v>-189.82776938800001</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="1">
-        <v>-189.82776938800001</v>
-      </c>
-      <c r="H3" s="1">
-        <f>G3*2625.5</f>
-        <v>-498392.80852819403</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="1">
-        <v>-189.82776938800001</v>
-      </c>
-      <c r="M3" s="1">
-        <v>-189.775494729</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="1">
-        <v>-0.43364999999999998</v>
-      </c>
-      <c r="C4" s="1">
-        <v>-76.458530768399996</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="1">
-        <v>-76.458530768399996</v>
-      </c>
-      <c r="H4" s="1">
-        <f t="shared" ref="H4:H13" si="0">G4*2625.5</f>
-        <v>-200741.87253243418</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="1">
-        <v>-76.431070000000005</v>
-      </c>
-      <c r="M4" s="1">
-        <v>-76.434047610700006</v>
-      </c>
-      <c r="P4" s="32">
-        <v>1.9870000000000001E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1">
-        <v>-188.94821743</v>
-      </c>
-      <c r="C5" s="1">
-        <v>-189.27280070500001</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="1">
-        <v>-189.27280070500001</v>
-      </c>
-      <c r="H5" s="1">
-        <f t="shared" si="0"/>
-        <v>-496935.73825097753</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="1">
-        <v>-189.27280070500001</v>
-      </c>
-      <c r="M5" s="1">
-        <v>-189.220750681</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C6" s="1">
-        <v>-76.731235500699995</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="1">
-        <v>-76.731235500699995</v>
-      </c>
-      <c r="H6" s="1">
-        <f t="shared" si="0"/>
-        <v>-201457.85880708785</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="1">
-        <v>-76.691599999999994</v>
-      </c>
-      <c r="M6" s="1">
-        <v>-76.707767660900004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="S7" s="1">
-        <v>-76.696950999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="S8" s="1">
-        <f>-76.820342</f>
-        <v>-76.820341999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-189.51022677899999</v>
-      </c>
-      <c r="C10" s="1">
-        <v>-189.42976636399999</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="1">
-        <v>-189.42976636399999</v>
-      </c>
-      <c r="H10" s="1">
-        <f t="shared" si="0"/>
-        <v>-497347.85158868198</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="1">
-        <v>-189.42976636399999</v>
-      </c>
-      <c r="M10" s="1">
-        <v>-189.78336354000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="1">
-        <v>-0.16456361391499999</v>
-      </c>
-      <c r="C11" s="1">
-        <v>-76.466477600000005</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="1">
-        <v>-76.466477600000005</v>
-      </c>
-      <c r="H11" s="1">
-        <f t="shared" si="0"/>
-        <v>-200762.73693880002</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="1">
-        <v>-76.466477600000005</v>
-      </c>
-      <c r="M11" s="1">
-        <v>-76.442299786199996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="1">
-        <v>-189.005198592</v>
-      </c>
-      <c r="C12" s="1">
-        <v>-189.37731566900001</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="1">
-        <v>-189.37731566900001</v>
-      </c>
-      <c r="H12" s="1">
-        <f t="shared" si="0"/>
-        <v>-497210.14228895953</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K12" s="1">
-        <v>-189.37731566900001</v>
-      </c>
-      <c r="M12" s="1">
-        <v>-189.32546392200001</v>
-      </c>
-      <c r="S12" s="1">
-        <f>(S8-S7)*2625.5</f>
-        <v>-323.96307049999484</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C13" s="1">
-        <v>-76.855215829000002</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="1">
-        <v>-76.855215829000002</v>
-      </c>
-      <c r="H13" s="1">
-        <f>G13*2625.5</f>
-        <v>-201783.36915903952</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" s="1">
-        <v>-76.855215829000002</v>
-      </c>
-      <c r="M13" s="1">
-        <v>-76.831812147099996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="G16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="1">
-        <f>B12+B5-(B10+B3)</f>
-        <v>1.3653472089999923</v>
-      </c>
-      <c r="C17" s="1">
-        <f>C12+C5+C13+C6-(C10+C3+C4+C11)</f>
-        <v>-5.4023583300136124E-2</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="1">
-        <f>G10-G3</f>
-        <v>0.39800302400001897</v>
-      </c>
-      <c r="H17" s="1">
-        <f>H10-H3</f>
-        <v>1044.9569395120488</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K17" s="1">
-        <f>K10-K3</f>
-        <v>0.39800302400001897</v>
-      </c>
-      <c r="M17" s="1">
-        <f>M10-M3</f>
-        <v>-7.8688110000086908E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="1">
-        <f>G11-G4</f>
-        <v>-7.9468316000088635E-3</v>
-      </c>
-      <c r="H18" s="1">
-        <f t="shared" ref="H18:H20" si="1">H11-H4</f>
-        <v>-20.864406365843024</v>
-      </c>
-      <c r="I18" s="1">
-        <v>-28.6</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" s="1">
-        <f>K11-K4</f>
-        <v>-3.5407599999999206E-2</v>
-      </c>
-      <c r="M18" s="1">
-        <f>M11-M4</f>
-        <v>-8.2521754999902441E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="1">
-        <f>4.184*(B17-2.36)/1.36</f>
-        <v>-3.0600200570176699</v>
-      </c>
-      <c r="C19" s="1">
-        <f>4.184*(C17-2.36)/1.36</f>
-        <v>-7.4266725533292419</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="1">
-        <f>G12-G5</f>
-        <v>-0.10451496400000337</v>
-      </c>
-      <c r="H19" s="1">
-        <f t="shared" si="1"/>
-        <v>-274.40403798199259</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K19" s="1">
-        <f>K12-K5</f>
-        <v>-0.10451496400000337</v>
-      </c>
-      <c r="M19" s="1">
-        <f>M12-M5</f>
-        <v>-0.10471324100001311</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="1">
-        <f>G13-G6</f>
-        <v>-0.12398032830000716</v>
-      </c>
-      <c r="H20" s="1">
-        <f t="shared" si="1"/>
-        <v>-325.5103519516706</v>
-      </c>
-      <c r="I20" s="1">
-        <v>-461.9</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K20" s="1">
-        <f>K13-K6</f>
-        <v>-0.16361582900000826</v>
-      </c>
-      <c r="M20" s="1">
-        <f>M13-M6</f>
-        <v>-0.12404448619999187</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="1">
-        <f>G20+G19-(G18+G17)</f>
-        <v>-0.61855148470002064</v>
-      </c>
-      <c r="H22" s="1">
-        <f>(H20+H19)-(H17+H18)</f>
-        <v>-1624.006923079869</v>
-      </c>
-      <c r="I22" s="1">
-        <f>(I20+H19)-(H17+I18)</f>
-        <v>-1752.6609774940414</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K22" s="1">
-        <f>K20+K19-(K18+K17)</f>
-        <v>-0.6307262170000314</v>
-      </c>
-      <c r="M22" s="1">
-        <f>M19+M20-M17-M18</f>
-        <v>-0.21263674070000604</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="1">
-        <f>G22*2625.5</f>
-        <v>-1624.0069230799043</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K23" s="1">
-        <f>K22*2625.5</f>
-        <v>-1655.9716827335824</v>
-      </c>
-      <c r="M23" s="1">
-        <f>M22*2625.5</f>
-        <v>-558.27776270786592</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H24" s="1">
-        <f>H22*0.2390057361</f>
-        <v>-388.1469700822002</v>
-      </c>
-      <c r="I24" s="1">
-        <f>I22*0.2390057361</f>
-        <v>-418.8960270597089</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" s="1">
-        <f>(G22-2.36)/1.36</f>
-        <v>-2.1901113858088386</v>
-      </c>
-      <c r="H25" s="32">
-        <f>H24/(2.3*P4*298.15)</f>
-        <v>-284.86276377478646</v>
-      </c>
-      <c r="I25" s="32">
-        <f>I24/(2.3*P4*1000*298.15)</f>
-        <v>-0.30742963155743719</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K25" s="1">
-        <f>(K22-2.36)/1.36</f>
-        <v>-2.1990633948529639</v>
-      </c>
-      <c r="M25" s="1">
-        <f>(M22-2.36)/1.36</f>
-        <v>-1.8916446622794161</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="1">
-        <f>3.75*1.36/(4.184*(B17-2.36))</f>
-        <v>-1.2254821635564024</v>
-      </c>
-    </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I34" s="31"/>
-    </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I35" s="31"/>
-    </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I36" s="31"/>
+      <c r="C4" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="37">
+        <f>G2+C2-B2-F2</f>
+        <v>0.28019099999998787</v>
+      </c>
+      <c r="C5" s="5">
+        <f>B5*627.5</f>
+        <v>175.81985249999238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="4">
+        <v>-110.3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="38"/>
+      <c r="C7" s="4">
+        <v>-6.32</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="38">
+        <f>D2-B2</f>
+        <v>-8.0019999999763058E-3</v>
+      </c>
+      <c r="C8" s="4">
+        <f>B8*627.5</f>
+        <v>-5.0212549999851319</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="38">
+        <f>E2-C2</f>
+        <v>-0.10437899999999445</v>
+      </c>
+      <c r="C9" s="4">
+        <f>B9*627.5</f>
+        <v>-65.497822499996516</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="38"/>
+      <c r="C10" s="4">
+        <f>C5+C9+C6-C8-C7</f>
+        <v>11.363284999980998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="41"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="33"/>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="35">
+        <f>C12/627.5</f>
+        <v>6.0617728587618021E-3</v>
+      </c>
+      <c r="C12" s="34">
+        <f>C10/(2.3*J2*298)-K2</f>
+        <v>3.8037624688730309</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1706,7 +1435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C779C022-FB34-44BA-AA7E-58EAAA651A41}">
   <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="N23" sqref="N23:T38"/>
     </sheetView>
   </sheetViews>
@@ -1726,22 +1455,22 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -1766,15 +1495,15 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B5">
         <f>G2+C2-B2-F2</f>
@@ -1787,26 +1516,26 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C7">
         <v>-110.3</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C8">
         <v>-6.32</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="26">
         <v>1.9870000000000001E-3</v>
       </c>
       <c r="O8">
@@ -1815,12 +1544,12 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O9" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B10">
         <f>D2-B2</f>
@@ -1830,13 +1559,13 @@
         <f>B10*627.509</f>
         <v>-4.4490388100032305</v>
       </c>
-      <c r="O10" s="32">
+      <c r="O10" s="26">
         <v>1.9870000000000001E-3</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B11">
         <f>E2-C2</f>
@@ -1849,7 +1578,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C13">
         <f>C5+C11+C7-C10-C8</f>
@@ -1858,7 +1587,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C14">
         <v>1.744214725</v>
@@ -1872,7 +1601,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D16">
         <f>(C13-2.36)/1.36</f>
@@ -1880,55 +1609,55 @@
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C18" s="32"/>
+      <c r="C18" s="26"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="C23" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O23" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="P23" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B24" s="1">
         <v>-189.73853500000001</v>
@@ -1949,7 +1678,7 @@
         <v>-76.731235500699995</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O24" s="1">
         <v>-189.73853500000001</v>
@@ -1980,21 +1709,21 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="O26" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="P26" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <f>G24+C24-B24-F24</f>
@@ -2005,7 +1734,7 @@
         <v>168.22727048175057</v>
       </c>
       <c r="N27" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O27">
         <f>T24+P24-O24-S24</f>
@@ -2018,13 +1747,13 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C29">
         <v>-110.3</v>
       </c>
       <c r="N29" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="P29">
         <v>-110.3</v>
@@ -2032,13 +1761,13 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C30">
         <v>-6.32</v>
       </c>
       <c r="N30" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="P30">
         <v>-6.32</v>
@@ -2046,7 +1775,7 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B32">
         <f>D24-B24</f>
@@ -2057,7 +1786,7 @@
         <v>-5.0212549999851319</v>
       </c>
       <c r="N32" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="O32">
         <f>Q24-O24</f>
@@ -2070,7 +1799,7 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B33">
         <f>E24-C24</f>
@@ -2081,7 +1810,7 @@
         <v>-65.497822499996516</v>
       </c>
       <c r="N33" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="O33">
         <f>R24-P24</f>
@@ -2094,15 +1823,15 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C35">
         <f>C27+C33+C29-C32-C30</f>
         <v>3.7707029817391842</v>
       </c>
-      <c r="E35" s="33"/>
+      <c r="E35" s="27"/>
       <c r="O35" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="P35">
         <f>P27+P33+P29-P32-P30</f>
@@ -2111,13 +1840,13 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C36">
         <v>1.744214725</v>
       </c>
       <c r="O36" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="P36">
         <v>1.744214725</v>
@@ -2125,13 +1854,13 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C37">
         <v>4.54</v>
       </c>
       <c r="O37" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="P37">
         <v>4.54</v>
@@ -2142,191 +1871,8 @@
         <f>ABS((C35/1.346)-C36 -C37)</f>
         <v>3.4828009198445886</v>
       </c>
-      <c r="P38" s="33">
+      <c r="P38" s="27">
         <f>P35/(2.3*O10*298)-P37</f>
-        <v>3.8037624688730309</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0EE6EA1-F5EE-4E3E-95E6-ED534FF2BCE8}">
-  <dimension ref="A1:O12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="36.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="9.140625" style="1"/>
-    <col min="15" max="15" width="89" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="11">
-        <v>-189.73853500000001</v>
-      </c>
-      <c r="C2" s="11">
-        <v>-189.19773900000001</v>
-      </c>
-      <c r="D2" s="11">
-        <v>-189.74653699999999</v>
-      </c>
-      <c r="E2" s="11">
-        <v>-189.30211800000001</v>
-      </c>
-      <c r="F2" s="11">
-        <v>-76.409934000000007</v>
-      </c>
-      <c r="G2" s="34">
-        <v>-76.670539000000005</v>
-      </c>
-      <c r="J2" s="1">
-        <v>8.3144626180000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J3" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J4" s="32">
-        <v>1.9870000000000001E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="6">
-        <f>G2+C2-B2-F2</f>
-        <v>0.28019099999998787</v>
-      </c>
-      <c r="C5" s="6">
-        <f>B5*627.5</f>
-        <v>175.81985249999238</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5">
-        <v>-110.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5">
-        <v>-6.32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="5">
-        <f>D2-B2</f>
-        <v>-8.0019999999763058E-3</v>
-      </c>
-      <c r="C8" s="5">
-        <f>B8*627.5</f>
-        <v>-5.0212549999851319</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="5">
-        <f>E2-C2</f>
-        <v>-0.10437899999999445</v>
-      </c>
-      <c r="C9" s="5">
-        <f>B9*627.5</f>
-        <v>-65.497822499996516</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5">
-        <f>C5+C9+C6-C8-C7</f>
-        <v>11.363284999980998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5">
-        <v>4.54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="35">
-        <f>C10/(2.3*J4*298)-C11</f>
         <v>3.8037624688730309</v>
       </c>
     </row>

--- a/Giuseppe/project 10/lab10.xlsx
+++ b/Giuseppe/project 10/lab10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giuseppe\Documents\.magistrale\secondo anno\Process\Final\project 10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17C12B7-B7A4-4B46-8B6C-BD1DB1D74758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F5F151-3C9A-4A70-A55A-674E83538702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{B2857D79-01BD-4509-B5E7-523680E9FE6A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="1" xr2:uid="{B2857D79-01BD-4509-B5E7-523680E9FE6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Ions" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="54">
   <si>
     <t>NH2-</t>
   </si>
@@ -61,24 +61,15 @@
     <t>Energy solution [kJ]</t>
   </si>
   <si>
-    <t>ΔG</t>
-  </si>
-  <si>
     <t>Ion</t>
   </si>
   <si>
-    <t>self-consistent reaction field (SCRF) method such as the Polarizable Continuum Model (PCM) to model the solvent.</t>
-  </si>
-  <si>
     <t>HO2-</t>
   </si>
   <si>
     <t>CH3O-</t>
   </si>
   <si>
-    <t>Literature values</t>
-  </si>
-  <si>
     <t>B3LYP/6-31+g(d,p)</t>
   </si>
   <si>
@@ -175,9 +166,6 @@
     <t>Correction factor</t>
   </si>
   <si>
-    <t>Δggas</t>
-  </si>
-  <si>
     <t>ΔG H3O</t>
   </si>
   <si>
@@ -194,13 +182,32 @@
   </si>
   <si>
     <t>experimental val</t>
+  </si>
+  <si>
+    <t>PCM (Polarizable Continuum Model)</t>
+  </si>
+  <si>
+    <t>ΔG [kJ/mol]</t>
+  </si>
+  <si>
+    <t>ΔG gas</t>
+  </si>
+  <si>
+    <t>pKa</t>
+  </si>
+  <si>
+    <t>pKa paper</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Source of error in the thermodynamic cycle arises with the solvation free energy
+of hydronium.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,8 +237,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,8 +288,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -570,12 +597,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -656,9 +706,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -701,8 +748,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Collegamento ipertestuale" xfId="2" builtinId="8"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Valore valido" xfId="1" builtinId="26"/>
   </cellStyles>
@@ -1036,29 +1117,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE33C5F-08E8-4A6E-9E95-BC7D300801B4}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
     <col min="4" max="4" width="36" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="19.1796875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1066,172 +1147,146 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E5"/>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6"/>
+      <c r="B6"/>
+    </row>
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="22" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="4"/>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="22">
+      <c r="C8" s="22">
         <f>-55.9339985319*2625.5</f>
         <v>-146854.71314550345</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D8" s="23">
         <f>-56.0530839446*2625.5</f>
         <v>-147167.37189654729</v>
       </c>
-      <c r="E15" s="24">
-        <f>D15-C15</f>
+      <c r="E8" s="24">
+        <f>D8-C8</f>
         <v>-312.65875104384031</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="11">
+      <c r="B9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="11">
         <f>-56.0484608188*2625.5</f>
         <v>-147155.23387975941</v>
       </c>
-      <c r="E16" s="12">
-        <f>(D16-C15)</f>
+      <c r="E9" s="12">
+        <f>(D9-C8)</f>
         <v>-300.52073425595881</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="14" t="s">
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C10" s="14">
         <f>-150.995463364*2625.5</f>
         <v>-396438.58906218194</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D10" s="15">
         <f xml:space="preserve"> -151.118202186*2625.5</f>
         <v>-396760.83983934298</v>
       </c>
-      <c r="E17" s="16">
-        <f t="shared" ref="E17" si="0">D17-C17</f>
+      <c r="E10" s="16">
+        <f t="shared" ref="E10" si="0">D10-C10</f>
         <v>-322.25077716103988</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15">
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15">
         <f>-151.118283609*2625.5</f>
         <v>-396761.0536154295</v>
       </c>
-      <c r="E18" s="16">
-        <f>D18-C17</f>
+      <c r="E11" s="16">
+        <f>D11-C10</f>
         <v>-322.46455324755516</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="18" t="s">
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C12" s="18">
         <f>-115.146813781*2625.5</f>
         <v>-302317.95958201552</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D12" s="19">
         <f>-115.260659341*2625.5</f>
         <v>-302616.8610997955</v>
       </c>
-      <c r="E19" s="20">
-        <f>D19-C19</f>
+      <c r="E12" s="20">
+        <f>D12-C12</f>
         <v>-298.9015177799738</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19">
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19">
         <f>-115.260736975*2625.5</f>
         <v>-302617.06492786249</v>
       </c>
-      <c r="E20" s="20">
-        <f>D20-C19</f>
+      <c r="E13" s="20">
+        <f>D13-C12</f>
         <v>-299.1053458469687</v>
       </c>
     </row>
@@ -1242,104 +1297,106 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0EE6EA1-F5EE-4E3E-95E6-ED534FF2BCE8}">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="9.140625" style="1"/>
+    <col min="4" max="4" width="16.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.1796875" style="1"/>
+    <col min="10" max="10" width="12.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.81640625" style="1" customWidth="1"/>
+    <col min="12" max="14" width="9.1796875" style="1"/>
     <col min="15" max="15" width="89" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="16" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="J1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="K1" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="29">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="28">
         <v>-189.73853500000001</v>
       </c>
-      <c r="C2" s="30">
+      <c r="C2" s="29">
         <v>-189.19773900000001</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="29">
         <v>-189.74653699999999</v>
       </c>
-      <c r="E2" s="30">
+      <c r="E2" s="29">
         <v>-189.30211800000001</v>
       </c>
-      <c r="F2" s="30">
+      <c r="F2" s="29">
         <v>-76.409934000000007</v>
       </c>
-      <c r="G2" s="31">
+      <c r="G2" s="30">
         <v>-76.670539000000005</v>
       </c>
-      <c r="J2" s="32">
+      <c r="J2" s="31">
         <v>1.9870000000000001E-3</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="51">
         <v>4.54</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40"/>
+    <row r="3" spans="1:13" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K3" s="52" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="39"/>
       <c r="B4" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="37">
+        <v>32</v>
+      </c>
+      <c r="K4" s="50"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="36">
         <f>G2+C2-B2-F2</f>
         <v>0.28019099999998787</v>
       </c>
@@ -1348,35 +1405,35 @@
         <v>175.81985249999238</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="38"/>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="37"/>
       <c r="C6" s="4">
         <v>-110.3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="38"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="37"/>
       <c r="C7" s="4">
         <v>-6.32</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="38">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="37">
         <f>D2-B2</f>
         <v>-8.0019999999763058E-3</v>
       </c>
@@ -1384,12 +1441,15 @@
         <f>B8*627.5</f>
         <v>-5.0212549999851319</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="38">
+      <c r="M8" s="46" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="37">
         <f>E2-C2</f>
         <v>-0.10437899999999445</v>
       </c>
@@ -1398,35 +1458,48 @@
         <v>-65.497822499996516</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="4">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="37"/>
+      <c r="C10" s="45">
         <f>C5+C9+C6-C8-C7</f>
         <v>11.363284999980998</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="41"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="33"/>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="35">
+    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="40"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="32"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="34">
         <f>C12/627.5</f>
         <v>6.0617728587618021E-3</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C12" s="33">
         <f>C10/(2.3*J2*298)-K2</f>
         <v>3.8037624688730309</v>
       </c>
     </row>
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="47"/>
+      <c r="C14" s="48">
+        <v>3.75</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M8" r:id="rId1" xr:uid="{EC022890-8D4E-41A4-B1BF-3C4A2014A42A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1439,41 +1512,41 @@
       <selection activeCell="N23" sqref="N23:T38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>-307.384162</v>
       </c>
@@ -1493,17 +1566,17 @@
         <v>-76.670643999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <f>G2+C2-B2-F2</f>
@@ -1514,23 +1587,23 @@
         <v>181.83014538502846</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>-110.3</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C8">
         <v>-6.32</v>
@@ -1542,14 +1615,14 @@
         <v>8.3144626180000003</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="O9" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10">
         <f>D2-B2</f>
@@ -1563,9 +1636,9 @@
         <v>1.9870000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B11">
         <f>E2-C2</f>
@@ -1576,88 +1649,88 @@
         <v>-60.338755404004822</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C13">
         <f>C5+C11+C7-C10-C8</f>
         <v>21.960428791026878</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>1.744214725</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C15">
         <f>(C13/1.346)-C14 -4.54</f>
         <v>10.03111127130526</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D16">
         <f>(C13-2.36)/1.36</f>
         <v>14.412079993402116</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C18" s="26"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="N23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N23" s="1" t="s">
+      <c r="Q23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T23" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B24" s="1">
         <v>-189.73853500000001</v>
@@ -1678,7 +1751,7 @@
         <v>-76.731235500699995</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O24" s="1">
         <v>-189.73853500000001</v>
@@ -1699,7 +1772,7 @@
         <v>-76.670539000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="F25">
         <v>-76.409934000000007</v>
       </c>
@@ -1707,23 +1780,23 @@
         <v>-76.670539000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="P26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B27">
         <f>G24+C24-B24-F24</f>
@@ -1734,7 +1807,7 @@
         <v>168.22727048175057</v>
       </c>
       <c r="N27" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O27">
         <f>T24+P24-O24-S24</f>
@@ -1745,37 +1818,37 @@
         <v>175.81985249999238</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C29">
         <v>-110.3</v>
       </c>
       <c r="N29" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="P29">
         <v>-110.3</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C30">
         <v>-6.32</v>
       </c>
       <c r="N30" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="P30">
         <v>-6.32</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B32">
         <f>D24-B24</f>
@@ -1786,7 +1859,7 @@
         <v>-5.0212549999851319</v>
       </c>
       <c r="N32" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O32">
         <f>Q24-O24</f>
@@ -1797,9 +1870,9 @@
         <v>-5.0212549999851319</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B33">
         <f>E24-C24</f>
@@ -1810,7 +1883,7 @@
         <v>-65.497822499996516</v>
       </c>
       <c r="N33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O33">
         <f>R24-P24</f>
@@ -1821,9 +1894,9 @@
         <v>-65.497822499996516</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C35">
         <f>C27+C33+C29-C32-C30</f>
@@ -1831,42 +1904,42 @@
       </c>
       <c r="E35" s="27"/>
       <c r="O35" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="P35">
         <f>P27+P33+P29-P32-P30</f>
         <v>11.363284999980998</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C36">
         <v>1.744214725</v>
       </c>
       <c r="O36" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="P36">
         <v>1.744214725</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C37">
         <v>4.54</v>
       </c>
       <c r="O37" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="P37">
         <v>4.54</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C38">
         <f>ABS((C35/1.346)-C36 -C37)</f>
         <v>3.4828009198445886</v>

--- a/Giuseppe/project 10/lab10.xlsx
+++ b/Giuseppe/project 10/lab10.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giuseppe\Documents\.magistrale\secondo anno\Process\Final\project 10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F5F151-3C9A-4A70-A55A-674E83538702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E0C56C-6D0E-40DF-B7D2-A62B119295FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="1" xr2:uid="{B2857D79-01BD-4509-B5E7-523680E9FE6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Ions" sheetId="1" r:id="rId1"/>
     <sheet name="Acido formico" sheetId="4" r:id="rId2"/>
-    <sheet name="Prova acido lattico" sheetId="3" r:id="rId3"/>
+    <sheet name="Acido lattico" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="68">
   <si>
     <t>NH2-</t>
   </si>
@@ -166,18 +166,6 @@
     <t>Correction factor</t>
   </si>
   <si>
-    <t>ΔG H3O</t>
-  </si>
-  <si>
-    <t>ΔG H2O</t>
-  </si>
-  <si>
-    <t>ΔG HA</t>
-  </si>
-  <si>
-    <t>ΔG A-</t>
-  </si>
-  <si>
     <t>ΔG soln</t>
   </si>
   <si>
@@ -194,20 +182,121 @@
   </si>
   <si>
     <t>pKa</t>
-  </si>
-  <si>
-    <t>pKa paper</t>
   </si>
   <si>
     <t xml:space="preserve"> Source of error in the thermodynamic cycle arises with the solvation free energy
 of hydronium.</t>
+  </si>
+  <si>
+    <t>source: pka pdf</t>
+  </si>
+  <si>
+    <t>pKa paper value</t>
+  </si>
+  <si>
+    <t>ΔG solvation  HA</t>
+  </si>
+  <si>
+    <t>ΔG solvation  A-</t>
+  </si>
+  <si>
+    <t>Formic Acid</t>
+  </si>
+  <si>
+    <t>Formate anion</t>
+  </si>
+  <si>
+    <r>
+      <t>CH</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>H₃O⁺ (idronio)</t>
+  </si>
+  <si>
+    <t>ΔG solvation H₃O⁺</t>
+  </si>
+  <si>
+    <t>ΔG solvation   H2O</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> H2O</t>
+  </si>
+  <si>
+    <r>
+      <t>HCOO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8.8000000000000007"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>−</t>
+    </r>
+  </si>
+  <si>
+    <t>Considerazioni</t>
+  </si>
+  <si>
+    <t>&lt;0: in fase gassosa "non è spontaneo" formare l'anione A-, serve molta energia per rompere il legame(ΔH&gt;0)</t>
+  </si>
+  <si>
+    <t>experimental val: l'idrone è stabilizzato dalle molecole di acqua</t>
+  </si>
+  <si>
+    <t>G=H−TS</t>
+  </si>
+  <si>
+    <t>spontaneo</t>
+  </si>
+  <si>
+    <t>ΔG&gt;0: entalpia incrementa più dell'entropia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'acido formico è un acido debole: dissocia in acqua, donando un H+ </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,8 +334,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="8.8000000000000007"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,8 +405,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -617,6 +734,174 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -625,7 +910,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -636,19 +921,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -757,12 +1030,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -771,15 +1038,66 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -798,6 +1116,54 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>212724</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>53976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1035721</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1463675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Immagine 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E0CFA41-5938-C5F5-D8A1-52656B62647B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect b="14081"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="212724" y="434976"/>
+          <a:ext cx="5103955" cy="1409699"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1152,7 +1518,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -1163,129 +1529,129 @@
       <c r="B6"/>
     </row>
     <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="25" t="s">
-        <v>49</v>
+      <c r="E7" s="21" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="18">
         <f>-55.9339985319*2625.5</f>
         <v>-146854.71314550345</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="19">
         <f>-56.0530839446*2625.5</f>
         <v>-147167.37189654729</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="20">
         <f>D8-C8</f>
         <v>-312.65875104384031</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="11">
+      <c r="C9" s="18"/>
+      <c r="D9" s="7">
         <f>-56.0484608188*2625.5</f>
         <v>-147155.23387975941</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="8">
         <f>(D9-C8)</f>
         <v>-300.52073425595881</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="10">
         <f>-150.995463364*2625.5</f>
         <v>-396438.58906218194</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="11">
         <f xml:space="preserve"> -151.118202186*2625.5</f>
         <v>-396760.83983934298</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="12">
         <f t="shared" ref="E10" si="0">D10-C10</f>
         <v>-322.25077716103988</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15">
+      <c r="C11" s="10"/>
+      <c r="D11" s="11">
         <f>-151.118283609*2625.5</f>
         <v>-396761.0536154295</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="12">
         <f>D11-C10</f>
         <v>-322.46455324755516</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="14">
         <f>-115.146813781*2625.5</f>
         <v>-302317.95958201552</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="15">
         <f>-115.260659341*2625.5</f>
         <v>-302616.8610997955</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="16">
         <f>D12-C12</f>
         <v>-298.9015177799738</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19">
+      <c r="C13" s="14"/>
+      <c r="D13" s="15">
         <f>-115.260736975*2625.5</f>
         <v>-302617.06492786249</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="16">
         <f>D13-C12</f>
         <v>-299.1053458469687</v>
       </c>
@@ -1297,20 +1663,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0EE6EA1-F5EE-4E3E-95E6-ED534FF2BCE8}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="36.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="9.1796875" style="1"/>
     <col min="10" max="10" width="12.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29.81640625" style="1" customWidth="1"/>
@@ -1319,188 +1686,238 @@
     <col min="16" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B3" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C3" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D3" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E3" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="6" t="s">
+      <c r="F3" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K3" s="59" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="44" t="s">
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="28">
+      <c r="B4" s="24">
         <v>-189.73853500000001</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C4" s="25">
         <v>-189.19773900000001</v>
       </c>
-      <c r="D2" s="29">
+      <c r="D4" s="25">
         <v>-189.74653699999999</v>
       </c>
-      <c r="E2" s="29">
+      <c r="E4" s="25">
         <v>-189.30211800000001</v>
       </c>
-      <c r="F2" s="29">
+      <c r="F4" s="25">
         <v>-76.409934000000007</v>
       </c>
-      <c r="G2" s="30">
+      <c r="G4" s="26">
         <v>-76.670539000000005</v>
       </c>
-      <c r="J2" s="31">
+      <c r="J4" s="27">
         <v>1.9870000000000001E-3</v>
       </c>
-      <c r="K2" s="51">
+      <c r="K4" s="44">
         <v>4.54</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K3" s="52" t="s">
+    <row r="5" spans="1:11" ht="132.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K5" s="45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="35"/>
+      <c r="B6" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" s="68" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="62">
+        <f>G4+C4-B4-F4</f>
+        <v>0.28019099999998787</v>
+      </c>
+      <c r="C7" s="44">
+        <f>B7*627.5</f>
+        <v>175.81985249999238</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="63"/>
+      <c r="C8" s="64">
+        <v>-110.4</v>
+      </c>
+      <c r="D8" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="65"/>
+      <c r="C9" s="66">
+        <v>-6.32</v>
+      </c>
+      <c r="D9" s="61" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="32">
+        <f>D4-B4</f>
+        <v>-8.0019999999763058E-3</v>
+      </c>
+      <c r="C10" s="4">
+        <f>B10*627.5</f>
+        <v>-5.0212549999851319</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="33">
+        <f>E4-C4</f>
+        <v>-0.10437899999999445</v>
+      </c>
+      <c r="C11" s="28">
+        <f>B11*627.5</f>
+        <v>-65.497822499996516</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="69"/>
+      <c r="C12" s="70">
+        <f>C7+C8+C11-C9-C10</f>
+        <v>11.263284999980989</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="36"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="44"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="30">
+        <f>C14/627.5</f>
+        <v>5.9447571135812366E-3</v>
+      </c>
+      <c r="C14" s="29">
+        <f>C12/(2.3*J4*298)-K4</f>
+        <v>3.7303350887722262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="41"/>
+      <c r="C16" s="42">
+        <v>3.75</v>
+      </c>
+      <c r="D16" s="67" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="39"/>
-      <c r="B4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="50"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="36">
-        <f>G2+C2-B2-F2</f>
-        <v>0.28019099999998787</v>
-      </c>
-      <c r="C5" s="5">
-        <f>B5*627.5</f>
-        <v>175.81985249999238</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="4">
-        <v>-110.3</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="4">
-        <v>-6.32</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="37">
-        <f>D2-B2</f>
-        <v>-8.0019999999763058E-3</v>
-      </c>
-      <c r="C8" s="4">
-        <f>B8*627.5</f>
-        <v>-5.0212549999851319</v>
-      </c>
-      <c r="M8" s="46" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="37">
-        <f>E2-C2</f>
-        <v>-0.10437899999999445</v>
-      </c>
-      <c r="C9" s="4">
-        <f>B9*627.5</f>
-        <v>-65.497822499996516</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="45">
-        <f>C5+C9+C6-C8-C7</f>
-        <v>11.363284999980998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="40"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="32"/>
-    </row>
-    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="34">
-        <f>C12/627.5</f>
-        <v>6.0617728587618021E-3</v>
-      </c>
-      <c r="C12" s="33">
-        <f>C10/(2.3*J2*298)-K2</f>
-        <v>3.8037624688730309</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="48">
-        <v>3.75</v>
+      <c r="C19" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M8" r:id="rId1" xr:uid="{EC022890-8D4E-41A4-B1BF-3C4A2014A42A}"/>
+    <hyperlink ref="K6" r:id="rId1" xr:uid="{EC022890-8D4E-41A4-B1BF-3C4A2014A42A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1508,8 +1925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C779C022-FB34-44BA-AA7E-58EAAA651A41}">
   <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23:T38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1526,23 +1943,23 @@
     <col min="20" max="20" width="11.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="48" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1566,34 +1983,46 @@
         <v>-76.670643999999996</v>
       </c>
     </row>
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
+      <c r="A4" s="50"/>
+      <c r="B4" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="51" t="s">
         <v>32</v>
       </c>
+      <c r="D4" s="52"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="49">
         <f>G2+C2-B2-F2</f>
         <v>0.28976500000004535</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="49">
         <f>B5*627.509</f>
         <v>181.83014538502846</v>
       </c>
+      <c r="D5" s="54"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" s="53"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="54"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C7">
+      <c r="B7" s="49"/>
+      <c r="C7" s="49">
         <v>-110.3</v>
       </c>
+      <c r="D7" s="54"/>
       <c r="F7" t="s">
         <v>36</v>
       </c>
@@ -1602,13 +2031,15 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C8">
+      <c r="B8" s="49"/>
+      <c r="C8" s="49">
         <v>-6.32</v>
       </c>
-      <c r="F8" s="26">
+      <c r="D8" s="54"/>
+      <c r="F8" s="22">
         <v>1.9870000000000001E-3</v>
       </c>
       <c r="O8">
@@ -1616,73 +2047,94 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" s="53"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="54"/>
       <c r="O9" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="49">
         <f>D2-B2</f>
         <v>-7.0900000000051477E-3</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="49">
         <f>B10*627.509</f>
         <v>-4.4490388100032305</v>
       </c>
-      <c r="O10" s="26">
+      <c r="D10" s="54"/>
+      <c r="O10" s="22">
         <v>1.9870000000000001E-3</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="49">
         <f>E2-C2</f>
         <v>-9.615600000000768E-2</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="49">
         <f>B11*627.509</f>
         <v>-60.338755404004822</v>
       </c>
+      <c r="D11" s="54"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" s="53"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="54"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
+      <c r="A13" s="53"/>
+      <c r="B13" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="49">
         <f>C5+C11+C7-C10-C8</f>
         <v>21.960428791026878</v>
       </c>
+      <c r="D13" s="54"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
+      <c r="A14" s="53"/>
+      <c r="B14" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="49">
         <v>1.744214725</v>
       </c>
+      <c r="D14" s="54"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="C15">
+      <c r="A15" s="53"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49">
         <f>(C13/1.346)-C14 -4.54</f>
         <v>10.03111127130526</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="C16" t="s">
+      <c r="D15" s="54"/>
+    </row>
+    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="55"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="57">
         <f>(C13-2.36)/1.36</f>
         <v>14.412079993402116</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="C18" s="26"/>
+      <c r="C18" s="22"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
@@ -1706,27 +2158,13 @@
       <c r="G23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="T23" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
@@ -1750,27 +2188,12 @@
       <c r="G24" s="1">
         <v>-76.731235500699995</v>
       </c>
-      <c r="N24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O24" s="1">
-        <v>-189.73853500000001</v>
-      </c>
-      <c r="P24" s="1">
-        <v>-189.19773900000001</v>
-      </c>
-      <c r="Q24" s="1">
-        <v>-189.74653699999999</v>
-      </c>
-      <c r="R24" s="1">
-        <v>-189.30211800000001</v>
-      </c>
-      <c r="S24" s="1">
-        <v>-76.409934000000007</v>
-      </c>
-      <c r="T24">
-        <v>-76.670539000000005</v>
-      </c>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="F25">
@@ -1787,12 +2210,6 @@
       <c r="C26" t="s">
         <v>32</v>
       </c>
-      <c r="O26" t="s">
-        <v>31</v>
-      </c>
-      <c r="P26" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
@@ -1806,17 +2223,6 @@
         <f>B27*627.5</f>
         <v>168.22727048175057</v>
       </c>
-      <c r="N27" t="s">
-        <v>29</v>
-      </c>
-      <c r="O27">
-        <f>T24+P24-O24-S24</f>
-        <v>0.28019099999998787</v>
-      </c>
-      <c r="P27">
-        <f>O27*627.5</f>
-        <v>175.81985249999238</v>
-      </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
@@ -1825,12 +2231,6 @@
       <c r="C29">
         <v>-110.3</v>
       </c>
-      <c r="N29" t="s">
-        <v>28</v>
-      </c>
-      <c r="P29">
-        <v>-110.3</v>
-      </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
@@ -1839,12 +2239,6 @@
       <c r="C30">
         <v>-6.32</v>
       </c>
-      <c r="N30" t="s">
-        <v>27</v>
-      </c>
-      <c r="P30">
-        <v>-6.32</v>
-      </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
@@ -1858,17 +2252,6 @@
         <f>B32*627.5</f>
         <v>-5.0212549999851319</v>
       </c>
-      <c r="N32" t="s">
-        <v>25</v>
-      </c>
-      <c r="O32">
-        <f>Q24-O24</f>
-        <v>-8.0019999999763058E-3</v>
-      </c>
-      <c r="P32">
-        <f>O32*627.5</f>
-        <v>-5.0212549999851319</v>
-      </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
@@ -1882,17 +2265,6 @@
         <f>B33*627.5</f>
         <v>-65.497822499996516</v>
       </c>
-      <c r="N33" t="s">
-        <v>26</v>
-      </c>
-      <c r="O33">
-        <f>R24-P24</f>
-        <v>-0.10437899999999445</v>
-      </c>
-      <c r="P33">
-        <f>O33*627.5</f>
-        <v>-65.497822499996516</v>
-      </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
@@ -1902,14 +2274,7 @@
         <f>C27+C33+C29-C32-C30</f>
         <v>3.7707029817391842</v>
       </c>
-      <c r="E35" s="27"/>
-      <c r="O35" t="s">
-        <v>30</v>
-      </c>
-      <c r="P35">
-        <f>P27+P33+P29-P32-P30</f>
-        <v>11.363284999980998</v>
-      </c>
+      <c r="E35" s="23"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
@@ -1918,24 +2283,12 @@
       <c r="C36">
         <v>1.744214725</v>
       </c>
-      <c r="O36" t="s">
-        <v>37</v>
-      </c>
-      <c r="P36">
-        <v>1.744214725</v>
-      </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>38</v>
       </c>
       <c r="C37">
-        <v>4.54</v>
-      </c>
-      <c r="O37" t="s">
-        <v>38</v>
-      </c>
-      <c r="P37">
         <v>4.54</v>
       </c>
     </row>
@@ -1944,10 +2297,7 @@
         <f>ABS((C35/1.346)-C36 -C37)</f>
         <v>3.4828009198445886</v>
       </c>
-      <c r="P38" s="27">
-        <f>P35/(2.3*O10*298)-P37</f>
-        <v>3.8037624688730309</v>
-      </c>
+      <c r="P38" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
